--- a/teaching/traditional_assets/database/data/philippines/philippines_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/philippines/philippines_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.145</v>
+        <v>0.164</v>
       </c>
       <c r="E2">
-        <v>0.206</v>
+        <v>0.258</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01121139032249329</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009782031330289953</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>117.882</v>
+        <v>122.5</v>
       </c>
       <c r="L2">
-        <v>0.3900406974820502</v>
+        <v>0.361890694239291</v>
       </c>
       <c r="M2">
-        <v>16.8</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>0.02450051042730057</v>
+        <v>0.03199488081906895</v>
       </c>
       <c r="O2">
-        <v>0.1425153967526849</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="P2">
-        <v>16.8</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>0.02450051042730057</v>
+        <v>0.03199488081906895</v>
       </c>
       <c r="R2">
-        <v>0.1425153967526849</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>203.944</v>
+        <v>286.4</v>
       </c>
       <c r="V2">
-        <v>0.2974245296777016</v>
+        <v>0.4581666933290673</v>
       </c>
       <c r="W2">
-        <v>0.1262886597938144</v>
+        <v>0.1399288701278692</v>
       </c>
       <c r="X2">
-        <v>0.06068234894745628</v>
+        <v>0.05864253609723899</v>
       </c>
       <c r="Y2">
-        <v>0.06560631084635815</v>
+        <v>0.08128633403063021</v>
       </c>
       <c r="Z2">
-        <v>0.4736212657112521</v>
+        <v>0.3781066741133762</v>
       </c>
       <c r="AA2">
-        <v>0.003611260388442314</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05259427368569377</v>
+        <v>0.04668753046324002</v>
       </c>
       <c r="AC2">
-        <v>-0.04920912227915195</v>
+        <v>-0.04668753046324002</v>
       </c>
       <c r="AD2">
-        <v>264.8</v>
+        <v>390.2</v>
       </c>
       <c r="AE2">
-        <v>30.25790751416426</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>295.0579075141642</v>
+        <v>390.2</v>
       </c>
       <c r="AG2">
-        <v>91.11390751416425</v>
+        <v>103.8</v>
       </c>
       <c r="AH2">
-        <v>0.300846830041901</v>
+        <v>0.384319905446666</v>
       </c>
       <c r="AI2">
-        <v>0.2522082530612543</v>
+        <v>0.2746920098556846</v>
       </c>
       <c r="AJ2">
-        <v>0.1172918077712234</v>
+        <v>0.1424063657566196</v>
       </c>
       <c r="AK2">
-        <v>0.09432531594456872</v>
+        <v>0.09152632043029715</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>28.05084745762711</v>
-      </c>
-      <c r="AP2">
-        <v>9.651896982432655</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asia United Bank Corporation (PSE:AUB)</t>
+          <t>Philippine Business Bank, Inc. (PSE:PBB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.145</v>
+        <v>0.167</v>
       </c>
       <c r="E3">
-        <v>0.184</v>
+        <v>0.237</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,103 +725,94 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01111320628669103</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009598240723799445</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>92.90000000000001</v>
+        <v>31.5</v>
       </c>
       <c r="L3">
-        <v>0.4347215722976135</v>
+        <v>0.2858439201451906</v>
       </c>
       <c r="M3">
-        <v>16.8</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.03307086614173228</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.1808396124865447</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>16.8</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.03307086614173228</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.1808396124865447</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>140.2</v>
+        <v>213.1</v>
       </c>
       <c r="V3">
-        <v>0.2759842519685039</v>
+        <v>1.242565597667638</v>
       </c>
       <c r="W3">
-        <v>0.1824072256037699</v>
+        <v>0.1353674258702192</v>
       </c>
       <c r="X3">
-        <v>0.06068234894745628</v>
+        <v>0.05478799770869061</v>
       </c>
       <c r="Y3">
-        <v>0.1217248766563136</v>
+        <v>0.08057942816152855</v>
       </c>
       <c r="Z3">
-        <v>0.4964854094286333</v>
+        <v>0.3946284691136975</v>
       </c>
       <c r="AA3">
-        <v>0.004765386475550149</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05259427368569377</v>
+        <v>0.04634749180802263</v>
       </c>
       <c r="AC3">
-        <v>-0.04782888721014362</v>
+        <v>-0.04634749180802263</v>
       </c>
       <c r="AD3">
-        <v>164.2</v>
+        <v>68.5</v>
       </c>
       <c r="AE3">
-        <v>25.02553908267063</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>189.2255390826706</v>
+        <v>68.5</v>
       </c>
       <c r="AG3">
-        <v>49.02553908267063</v>
+        <v>-144.6</v>
       </c>
       <c r="AH3">
-        <v>0.2713978884531853</v>
+        <v>0.2854166666666667</v>
       </c>
       <c r="AI3">
-        <v>0.2301662338501354</v>
+        <v>0.1894358407079646</v>
       </c>
       <c r="AJ3">
-        <v>0.08801309032150953</v>
+        <v>-5.375464684014869</v>
       </c>
       <c r="AK3">
-        <v>0.07189280393959142</v>
+        <v>-0.9737373737373735</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>22.24932249322493</v>
-      </c>
-      <c r="AP3">
-        <v>6.64302697597163</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +823,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Philippine Business Bank, Inc. (PSE:PBB)</t>
+          <t>Asia United Bank Corporation (PSE:AUB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,10 +832,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.153</v>
+        <v>0.161</v>
       </c>
       <c r="E4">
-        <v>0.214</v>
+        <v>0.279</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,218 +844,96 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01145227473108784</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008633253258820068</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>24.5</v>
+        <v>91</v>
       </c>
       <c r="L4">
-        <v>0.2768361581920904</v>
+        <v>0.398598335523434</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>20</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.04409171075837742</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>20</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.04409171075837742</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>63.7</v>
+        <v>73.3</v>
       </c>
       <c r="V4">
-        <v>0.3951612903225807</v>
+        <v>0.1615961199294532</v>
       </c>
       <c r="W4">
-        <v>0.1262886597938144</v>
+        <v>0.1444903143855192</v>
       </c>
       <c r="X4">
-        <v>0.06722433514948761</v>
+        <v>0.06249707448578737</v>
       </c>
       <c r="Y4">
-        <v>0.05906432464432682</v>
+        <v>0.08199323989973187</v>
       </c>
       <c r="Z4">
-        <v>0.4182965888036366</v>
+        <v>0.3706168831168831</v>
       </c>
       <c r="AA4">
-        <v>0.003611260388442314</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05282038266759426</v>
+        <v>0.04702756911845742</v>
       </c>
       <c r="AC4">
-        <v>-0.04920912227915195</v>
+        <v>-0.04702756911845742</v>
       </c>
       <c r="AD4">
-        <v>100.6</v>
+        <v>321.7</v>
       </c>
       <c r="AE4">
-        <v>5.232368431493629</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>105.8323684314936</v>
+        <v>321.7</v>
       </c>
       <c r="AG4">
-        <v>42.13236843149362</v>
+        <v>248.4</v>
       </c>
       <c r="AH4">
-        <v>0.3963278648694778</v>
+        <v>0.4149361537469367</v>
       </c>
       <c r="AI4">
-        <v>0.301918960879577</v>
+        <v>0.3038058362451601</v>
       </c>
       <c r="AJ4">
-        <v>0.2072093526303894</v>
+        <v>0.3538461538461538</v>
       </c>
       <c r="AK4">
-        <v>0.1468884723920425</v>
+        <v>0.2520292207792207</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>48.83495145631068</v>
-      </c>
-      <c r="AP4">
-        <v>20.45260603470564</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Prime Media Holdings, Inc. (PSE:PRIM)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Banks (Regional)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>-0.348</v>
-      </c>
-      <c r="E5">
-        <v>0.206</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0.482</v>
-      </c>
-      <c r="L5">
-        <v>16.06666666666667</v>
-      </c>
-      <c r="M5">
-        <v>-0</v>
-      </c>
-      <c r="N5">
-        <v>-0</v>
-      </c>
-      <c r="O5">
-        <v>-0</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>-0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.044</v>
-      </c>
-      <c r="V5">
-        <v>0.002666666666666667</v>
-      </c>
-      <c r="W5">
-        <v>-0.1438805970149254</v>
-      </c>
-      <c r="X5">
-        <v>0.05210307451950158</v>
-      </c>
-      <c r="Y5">
-        <v>-0.1959836715344269</v>
-      </c>
-      <c r="Z5">
-        <v>-0.007747933884297521</v>
-      </c>
-      <c r="AA5">
-        <v>-0</v>
-      </c>
-      <c r="AB5">
-        <v>0.05210307451950158</v>
-      </c>
-      <c r="AC5">
-        <v>-0.05210307451950158</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>-0.044</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>-0</v>
-      </c>
-      <c r="AJ5">
-        <v>-0.00267379679144385</v>
-      </c>
-      <c r="AK5">
-        <v>0.01569186875891583</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
         <v>0</v>
       </c>
     </row>
